--- a/расшифровка данных.xlsx
+++ b/расшифровка данных.xlsx
@@ -19,12 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>h_2, см</t>
   </si>
   <si>
     <t>h_1, см</t>
+  </si>
+  <si>
+    <t>J, кг*м^2</t>
+  </si>
+  <si>
+    <t>dM/da, Н*м</t>
+  </si>
+  <si>
+    <t>T теоретическое, c</t>
+  </si>
+  <si>
+    <t>T эмпирическое, с</t>
+  </si>
+  <si>
+    <t>dT, с</t>
+  </si>
+  <si>
+    <t>d 1/ω, c/рад</t>
+  </si>
+  <si>
+    <t>1/ω, (c/рад)</t>
   </si>
 </sst>
 </file>
@@ -342,31 +363,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="10" max="10" width="11.53125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <f>0.0409*0.3815^2/12 + ((B2 + 1.2)/100)^2*0.0807 + ((C2 + 1.2)/100)^2*0.0807</f>
+        <v>3.0359276020833327E-3</v>
+      </c>
+      <c r="F2">
+        <f>9.8*(B2-C2)*0.0807/100</f>
+        <v>0.13049190000000002</v>
+      </c>
+      <c r="G2">
+        <f>2*3.1415*SQRT(E2/F2)</f>
+        <v>0.95834302815850281</v>
+      </c>
+      <c r="I2">
+        <f>SQRT(E2/F2)</f>
+        <v>0.1525295285943821</v>
+      </c>
+      <c r="J2">
+        <f>I2*(((0.0003*0.3815^2 + 2*0.04*0.3815*0.001)/12 + 0.0003*((B2+1.2)/100)^2 + 2*0.081*0.001*B2/100  + 0.0003*((C2+1.2)/100)^2 + 2*0.081*0.001*C2/100)/E2 + (0.0003*(B2+1.2)/100 + 0.0003*(B2+1.2)/100 + 2*0.081*0.001)*9.8/F2)/2</f>
+        <v>2.600079058916553E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.93722837730527497</v>
+      </c>
+      <c r="L2">
+        <v>3.4897656071638199E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <f t="shared" ref="A3:A12" si="0">A2+1</f>
         <v>2</v>
@@ -377,8 +448,34 @@
       <c r="C3">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="1">0.0409*0.3815^2/12 + ((B3 + 1.2)/100)^2*0.0807 + ((C3 + 1.2)/100)^2*0.0807</f>
+        <v>5.2749491020833324E-3</v>
+      </c>
+      <c r="F3">
+        <f>9.8*(B3-C3)*0.0807/100</f>
+        <v>7.9086E-3</v>
+      </c>
+      <c r="G3">
+        <f>2*3.1415*SQRT(E3/F3)</f>
+        <v>5.1312880069541773</v>
+      </c>
+      <c r="I3">
+        <f>SQRT(E3/F3)</f>
+        <v>0.81669393712465022</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="2">I3*(((0.0003*0.3815^2 + 2*0.04*0.3815*0.001)/12 + 0.0003*((B3+1.2)/100)^2 + 2*0.081*0.001*B3/100  + 0.0003*((C3+1.2)/100)^2 + 2*0.081*0.001*C3/100)/E3 + (0.0003*(B3+1.2)/100 + 0.0003*(B3+1.2)/100 + 2*0.081*0.001)*9.8/F3)/2</f>
+        <v>0.14157773440302715</v>
+      </c>
+      <c r="K3">
+        <v>4.7995000000000001</v>
+      </c>
+      <c r="L3">
+        <v>5.0059329348778898E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -389,8 +486,34 @@
       <c r="C4">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>5.0134811020833333E-3</v>
+      </c>
+      <c r="F4">
+        <f>9.8*(B4-C4)*0.0807/100</f>
+        <v>1.58172E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="3">2*3.1415*SQRT(E4/F4)</f>
+        <v>3.5373004374737254</v>
+      </c>
+      <c r="I4">
+        <f>SQRT(E4/F4)</f>
+        <v>0.562995453998683</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>5.0886540494112377E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.4932919254658401</v>
+      </c>
+      <c r="L4">
+        <v>4.0454422198786403E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -401,8 +524,34 @@
       <c r="C5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.768153102083332E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F12" si="4">9.8*(B5-C5)*0.0807/100</f>
+        <v>2.3725800000000002E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>2.8166424679296345</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I12" si="5">SQRT(E5/F5)</f>
+        <v>0.44829579308127238</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>2.8153091034703842E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.7876026272578001</v>
+      </c>
+      <c r="L5">
+        <v>4.0156351559569202E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -413,8 +562,34 @@
       <c r="C6">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.3259171020833334E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>3.9543000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>2.0781234770971517</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>0.3307533784970797</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1.350701895226517E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.0683606078316799</v>
+      </c>
+      <c r="L6">
+        <v>7.5734561191720601E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -425,8 +600,34 @@
       <c r="C7">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3.948241102083333E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>5.5360200000000005E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1.6779154274594257</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>0.26705641054582613</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>8.4071511979568053E-3</v>
+      </c>
+      <c r="K7">
+        <v>1.6600890379278399</v>
+      </c>
+      <c r="L7">
+        <v>2.0301881671661299E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -437,8 +638,34 @@
       <c r="C8">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.635125102083333E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>7.1177400000000002E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1.4198932041738674</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>0.22598968711982609</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>5.9359931280892489E-3</v>
+      </c>
+      <c r="K8">
+        <v>1.42206868640148</v>
+      </c>
+      <c r="L8">
+        <v>9.4589906942349402E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -449,8 +676,34 @@
       <c r="C9">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.386569102083333E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>8.6994600000000005E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1.2396551323388676</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>0.19730306101207504</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>4.5118469270321289E-3</v>
+      </c>
+      <c r="K9">
+        <v>1.2422515847361599</v>
+      </c>
+      <c r="L9">
+        <v>5.4398667302051301E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -461,8 +714,34 @@
       <c r="C10">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.2025731020833329E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0.10281179999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1.1089069470350246</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>0.17649322728553629</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>3.5963658309221885E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.1147996647777201</v>
+      </c>
+      <c r="L10">
+        <v>9.4196388232227403E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -473,8 +752,34 @@
       <c r="C11">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.1534268020833329E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0.10834781999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1.0718853819677905</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>0.17060088842396792</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>3.3494522851332557E-3</v>
+      </c>
+      <c r="K11">
+        <v>1.0776488878258801</v>
+      </c>
+      <c r="L11">
+        <v>4.51368974848679E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -484,6 +789,32 @@
       </c>
       <c r="C12">
         <v>2.8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.1534268020833329E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0.10834781999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1.0718853819677905</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>0.17060088842396792</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>3.3494522851332557E-3</v>
+      </c>
+      <c r="K12">
+        <v>1.05766022827041</v>
+      </c>
+      <c r="L12">
+        <v>2.1901290709735801E-4</v>
       </c>
     </row>
   </sheetData>
